--- a/biology/Botanique/Rosellinia/Rosellinia.xlsx
+++ b/biology/Botanique/Rosellinia/Rosellinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rosellinia est un genre de champignons (Fungi) ascomycètes appartenant à la famille des Xylariaceae.
 La forme téléomorphe correspondant à Rosellinia est Dematophora R. Hartig (1883).
-Ce genre comprend plus de 90 espèces[2].
+Ce genre comprend plus de 90 espèces.
 Parmi celles-ci, plusieurs sont des agents phytopathogènes, en particulier, Rosellinia necatrix, un agent de pourridié des racines des arbres.
 </t>
         </is>
@@ -515,11 +527,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces du genre Rosellinia sont des saprophytes, certaines sont des endophytes et deviennent parfois pathogènes Quelques espèces sont des champignons pathogènes des racines bien connus sur des plantes cultivées importantes comme la pomme de terre et les arbres fruitiers et forestiers dans les régions tropicales et subtropicales du monde, chez lesquels elles provoquent des pourridiés. Des espèces de Rosellinia sont responsables d'une pourriture noire des tubercules chez la pomme de terre uniquement dans les cultures des régions tropicales en altitude[3].
-Connue jusqu'alors uniquement en Amérique du Sud, cette maladie de la pomme de terre a également été identifiée au Népal dans les années 1990[4].
-Parmi les agents pathogènes les plus connus figurent Rosellinia necatrix et Rosellinia desmazieresii, principalement connues dans les régions tempérées, causant des maladies sur le poirier, le pommier et sur la vigne au Japon, sur l'avocatier en Espagne et en Argentine sur le pêcher, le prunier, le pommier, le poirier, la vigne et d'autres hôtes. Rosellinia bunodes, Rosellinia pepo et Rosellinia arcuata, ne sont connues que dans les régions tropicales. D'autres espèces ont été signalées comme infectant le caféier, notamment Rosellinia coffeae, Rosellinia didolotii, Rosellinia echinocarpa, Rosellinia lobayensis, Rosellinia mastoidiformis et Rosellinia megalospora, mais peu d'informations sont disponibles sur ces espèces[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces du genre Rosellinia sont des saprophytes, certaines sont des endophytes et deviennent parfois pathogènes Quelques espèces sont des champignons pathogènes des racines bien connus sur des plantes cultivées importantes comme la pomme de terre et les arbres fruitiers et forestiers dans les régions tropicales et subtropicales du monde, chez lesquels elles provoquent des pourridiés. Des espèces de Rosellinia sont responsables d'une pourriture noire des tubercules chez la pomme de terre uniquement dans les cultures des régions tropicales en altitude.
+Connue jusqu'alors uniquement en Amérique du Sud, cette maladie de la pomme de terre a également été identifiée au Népal dans les années 1990.
+Parmi les agents pathogènes les plus connus figurent Rosellinia necatrix et Rosellinia desmazieresii, principalement connues dans les régions tempérées, causant des maladies sur le poirier, le pommier et sur la vigne au Japon, sur l'avocatier en Espagne et en Argentine sur le pêcher, le prunier, le pommier, le poirier, la vigne et d'autres hôtes. Rosellinia bunodes, Rosellinia pepo et Rosellinia arcuata, ne sont connues que dans les régions tropicales. D'autres espèces ont été signalées comme infectant le caféier, notamment Rosellinia coffeae, Rosellinia didolotii, Rosellinia echinocarpa, Rosellinia lobayensis, Rosellinia mastoidiformis et Rosellinia megalospora, mais peu d'informations sont disponibles sur ces espèces.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa circonscription actuelle, le genre  Rosellinia est délimité au sein des Xylariaceae par cinq caractères principaux : les stromas sont unipérithéciés  (rosellinioïdes), superficiels, subglobeux, associés, au moins lorsqu'ils sont immatures, à un tapis d' hyphes généralement appelé « subiculum », et associés à une forme anamorphe de type Geniculosporium (y compris Dematophora R. Hartig et Geniculosporium Chesters &amp; Greenhalgh). Il comprenait précédemment de nombreux taxons non pertinents et était connu seulement par quelques-uns de ceux-ci. Sa délimitation plus étroite de Rosellinia a conduit L.E. Petrini (1993) à transférer les taxons exclus de ce genre dans les genres Amphisphaerella, Anthostomella, Astrocystis, Coniochaeta, Xylaria et d'autres genres sordariacés ou xylariacés. En revanche, Rosellinia mammaeformis s'est avéré être un complexe d'espèces apparentées. Un certain désaccord persiste sur le statut du genre Astrocystis Berk. &amp; Br., reconnus par certains auteurs, et considéré comme synonyme de Rosellinia par d'autres[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa circonscription actuelle, le genre  Rosellinia est délimité au sein des Xylariaceae par cinq caractères principaux : les stromas sont unipérithéciés  (rosellinioïdes), superficiels, subglobeux, associés, au moins lorsqu'ils sont immatures, à un tapis d' hyphes généralement appelé « subiculum », et associés à une forme anamorphe de type Geniculosporium (y compris Dematophora R. Hartig et Geniculosporium Chesters &amp; Greenhalgh). Il comprenait précédemment de nombreux taxons non pertinents et était connu seulement par quelques-uns de ceux-ci. Sa délimitation plus étroite de Rosellinia a conduit L.E. Petrini (1993) à transférer les taxons exclus de ce genre dans les genres Amphisphaerella, Anthostomella, Astrocystis, Coniochaeta, Xylaria et d'autres genres sordariacés ou xylariacés. En revanche, Rosellinia mammaeformis s'est avéré être un complexe d'espèces apparentées. Un certain désaccord persiste sur le statut du genre Astrocystis Berk. &amp; Br., reconnus par certains auteurs, et considéré comme synonyme de Rosellinia par d'autres.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (12 mars 2020)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (12 mars 2020) :
 Rosellinia abscondita Rehm 1889
 Rosellinia abscondita Tassi 1900
 Rosellinia acaciae A. Pande &amp; V.G. Rao 1995
